--- a/Project_Code_Testcase_Template_v2.2.xlsx
+++ b/Project_Code_Testcase_Template_v2.2.xlsx
@@ -199,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="88">
   <si>
     <t>Online ID</t>
   </si>
@@ -457,6 +457,15 @@
   </si>
   <si>
     <t>22/8/2018</t>
+  </si>
+  <si>
+    <t>Đăng nhập đúng tài khoản và mật khẩu</t>
+  </si>
+  <si>
+    <t>Lỗi kết nối mạng</t>
+  </si>
+  <si>
+    <t>Đăng nhập được</t>
   </si>
 </sst>
 </file>
@@ -2886,7 +2895,7 @@
   <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:G25"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3327,11 +3336,17 @@
       <c r="A21" s="55">
         <v>3</v>
       </c>
-      <c r="B21" s="160"/>
+      <c r="B21" s="160" t="s">
+        <v>85</v>
+      </c>
       <c r="C21" s="161"/>
-      <c r="D21" s="166"/>
+      <c r="D21" s="166" t="s">
+        <v>86</v>
+      </c>
       <c r="E21" s="167"/>
-      <c r="F21" s="166"/>
+      <c r="F21" s="166" t="s">
+        <v>87</v>
+      </c>
       <c r="G21" s="167"/>
       <c r="H21" s="171" t="s">
         <v>35</v>

--- a/Project_Code_Testcase_Template_v2.2.xlsx
+++ b/Project_Code_Testcase_Template_v2.2.xlsx
@@ -199,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="93">
   <si>
     <t>Online ID</t>
   </si>
@@ -235,9 +235,6 @@
   </si>
   <si>
     <t xml:space="preserve">Test với tham số chỉ định \ Test với tham số -r </t>
-  </si>
-  <si>
-    <t>1.2.2-2</t>
   </si>
   <si>
     <t>Test case Overview</t>
@@ -351,9 +348,6 @@
     <t>Chạy được</t>
   </si>
   <si>
-    <t>File Mpeg có thời lượng 3s</t>
-  </si>
-  <si>
     <t>BUG213</t>
   </si>
   <si>
@@ -466,6 +460,27 @@
   </si>
   <si>
     <t>Đăng nhập được</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gửi tín hiệu tới máy chủ nhận dạng thẻ </t>
+  </si>
+  <si>
+    <t>Không nhận dạng được thẻ đã cung cấp</t>
+  </si>
+  <si>
+    <t>Thẻ bị lỗi</t>
+  </si>
+  <si>
+    <t>PhinhDV</t>
+  </si>
+  <si>
+    <t>23/8/2018</t>
+  </si>
+  <si>
+    <t>BUG11155</t>
+  </si>
+  <si>
+    <t>1.2.2-1</t>
   </si>
 </sst>
 </file>
@@ -1873,7 +1888,7 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="5"/>
@@ -1955,7 +1970,7 @@
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="O6" s="127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P6" s="127"/>
       <c r="Q6" s="127"/>
@@ -1989,10 +2004,10 @@
       <c r="B9" s="30"/>
       <c r="C9" s="18"/>
       <c r="D9" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
@@ -2003,7 +2018,7 @@
       <c r="B10" s="30"/>
       <c r="C10" s="18"/>
       <c r="D10" s="27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
@@ -2013,7 +2028,7 @@
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="124" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
@@ -2027,7 +2042,7 @@
       <c r="B11" s="30"/>
       <c r="C11" s="18"/>
       <c r="D11" s="31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="128">
         <f ca="1">TODAY()</f>
@@ -2037,24 +2052,24 @@
       <c r="G11" s="128"/>
       <c r="H11" s="82"/>
       <c r="L11" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
       <c r="O11" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P11" s="33"/>
       <c r="Q11" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R11" s="33"/>
       <c r="S11" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T11" s="33"/>
       <c r="U11" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V11" s="33"/>
       <c r="X11" s="19"/>
@@ -2062,7 +2077,7 @@
     <row r="12" spans="1:24">
       <c r="B12" s="30"/>
       <c r="L12" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M12" s="34"/>
       <c r="N12" s="34"/>
@@ -2140,7 +2155,7 @@
     <row r="15" spans="1:24">
       <c r="B15" s="30"/>
       <c r="D15" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="81"/>
       <c r="F15" s="81"/>
@@ -2271,7 +2286,7 @@
       <c r="G19" s="44"/>
       <c r="H19" s="44"/>
       <c r="L19" s="36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M19" s="37"/>
       <c r="N19" s="37"/>
@@ -2323,7 +2338,7 @@
       <c r="B22" s="15"/>
       <c r="C22" s="4"/>
       <c r="D22" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="81"/>
       <c r="F22" s="81"/>
@@ -2350,7 +2365,7 @@
       <c r="G24" s="44"/>
       <c r="H24" s="44"/>
       <c r="L24" s="124" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M24" s="114"/>
       <c r="N24" s="114"/>
@@ -2485,7 +2500,7 @@
     <row r="31" spans="2:35">
       <c r="B31" s="15"/>
       <c r="C31" s="39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="28"/>
@@ -2521,7 +2536,7 @@
     <row r="32" spans="2:35">
       <c r="B32" s="46"/>
       <c r="C32" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
@@ -2591,7 +2606,7 @@
     <row r="34" spans="1:35">
       <c r="B34" s="30"/>
       <c r="C34" s="39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="28"/>
@@ -2627,7 +2642,7 @@
     <row r="35" spans="1:35">
       <c r="B35" s="30"/>
       <c r="C35" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
@@ -2894,8 +2909,8 @@
   </sheetPr>
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2912,7 +2927,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="65" customFormat="1">
       <c r="A1" s="87" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" s="88" t="str">
         <f>Overview!E9</f>
@@ -2923,26 +2938,26 @@
       <c r="E1" s="89"/>
       <c r="F1" s="89"/>
       <c r="G1" s="90" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H1" s="91" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I1" s="111">
         <f>COUNTIF(H1:H792,"OK")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1" s="92" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K1" s="93"/>
     </row>
     <row r="2" spans="1:11" s="65" customFormat="1">
       <c r="A2" s="126" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="95"/>
       <c r="D2" s="95"/>
@@ -2950,23 +2965,23 @@
       <c r="F2" s="96"/>
       <c r="G2" s="97"/>
       <c r="H2" s="98" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I2" s="112">
         <f>COUNTIF(H2:H793,"Not OK")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" s="99" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K2" s="100"/>
     </row>
     <row r="3" spans="1:11" s="65" customFormat="1" ht="11.25" customHeight="1">
       <c r="A3" s="94" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" s="95"/>
       <c r="D3" s="95"/>
@@ -2974,14 +2989,14 @@
       <c r="F3" s="96"/>
       <c r="G3" s="97"/>
       <c r="H3" s="98" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I3" s="113">
         <f>COUNTIF(H2:H793,"Untested")</f>
         <v>0</v>
       </c>
       <c r="J3" s="99" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K3" s="100"/>
     </row>
@@ -2993,7 +3008,7 @@
       <c r="E4" s="96"/>
       <c r="F4" s="96"/>
       <c r="G4" s="102" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H4" s="95"/>
       <c r="I4" s="112">
@@ -3048,29 +3063,29 @@
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A8" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="129" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" s="129" t="s">
-        <v>27</v>
       </c>
       <c r="C8" s="130"/>
       <c r="D8" s="129" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E8" s="130"/>
       <c r="F8" s="129" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="130"/>
       <c r="H8" s="157" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8" s="157"/>
       <c r="J8" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="49" t="s">
         <v>30</v>
-      </c>
-      <c r="K8" s="49" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="10.5" customHeight="1">
@@ -3078,44 +3093,44 @@
         <v>1</v>
       </c>
       <c r="B9" s="132" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" s="133"/>
       <c r="D9" s="141" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E9" s="142"/>
       <c r="F9" s="51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G9" s="66"/>
       <c r="H9" s="147" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" s="148"/>
       <c r="J9" s="50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K9" s="151" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="10.5" customHeight="1">
       <c r="A10" s="47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="134"/>
       <c r="C10" s="135"/>
       <c r="D10" s="143"/>
       <c r="E10" s="144"/>
       <c r="H10" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" s="47" t="s">
         <v>1</v>
       </c>
       <c r="J10" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10" s="152"/>
     </row>
@@ -3130,7 +3145,7 @@
       <c r="F11" s="52"/>
       <c r="G11" s="67"/>
       <c r="H11" s="54" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I11" s="54"/>
       <c r="J11" s="50"/>
@@ -3146,10 +3161,10 @@
       <c r="E12" s="144"/>
       <c r="G12" s="67"/>
       <c r="H12" s="47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J12" s="47"/>
       <c r="K12" s="152"/>
@@ -3165,7 +3180,7 @@
       <c r="F13" s="56"/>
       <c r="G13" s="68"/>
       <c r="H13" s="58" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I13" s="58"/>
       <c r="J13" s="59"/>
@@ -3173,29 +3188,29 @@
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A14" s="60" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="139" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="140"/>
       <c r="D14" s="139" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E14" s="140"/>
       <c r="F14" s="139" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="140"/>
       <c r="H14" s="138" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14" s="138"/>
       <c r="J14" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="61" t="s">
         <v>30</v>
-      </c>
-      <c r="K14" s="61" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="10.5" customHeight="1">
@@ -3203,31 +3218,31 @@
         <v>2</v>
       </c>
       <c r="B15" s="132" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C15" s="133"/>
       <c r="D15" s="141" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E15" s="142"/>
       <c r="F15" s="51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" s="66"/>
       <c r="H15" s="149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I15" s="150"/>
       <c r="J15" s="57" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K15" s="151" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="10.5" customHeight="1">
       <c r="A16" s="62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="134"/>
       <c r="C16" s="135"/>
@@ -3236,13 +3251,13 @@
       <c r="F16" s="52"/>
       <c r="G16" s="67"/>
       <c r="H16" s="62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I16" s="62" t="s">
         <v>1</v>
       </c>
       <c r="J16" s="62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K16" s="152"/>
     </row>
@@ -3257,13 +3272,13 @@
       <c r="F17" s="52"/>
       <c r="G17" s="67"/>
       <c r="H17" s="54" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I17" s="54" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J17" s="50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K17" s="152"/>
     </row>
@@ -3278,10 +3293,10 @@
       <c r="F18" s="52"/>
       <c r="G18" s="67"/>
       <c r="H18" s="62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I18" s="62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J18" s="62"/>
       <c r="K18" s="152"/>
@@ -3297,39 +3312,39 @@
       <c r="F19" s="56"/>
       <c r="G19" s="68"/>
       <c r="H19" s="54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I19" s="54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J19" s="50"/>
       <c r="K19" s="152"/>
     </row>
     <row r="20" spans="1:11" ht="10.5" customHeight="1">
       <c r="A20" s="55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="173" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="174"/>
       <c r="D20" s="175" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E20" s="176"/>
       <c r="F20" s="175" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G20" s="176"/>
       <c r="H20" s="171" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I20" s="172"/>
       <c r="J20" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="179" t="s">
         <v>30</v>
-      </c>
-      <c r="K20" s="179" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="10.5" customHeight="1">
@@ -3337,31 +3352,31 @@
         <v>3</v>
       </c>
       <c r="B21" s="160" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C21" s="161"/>
       <c r="D21" s="166" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E21" s="167"/>
       <c r="F21" s="166" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G21" s="167"/>
       <c r="H21" s="171" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I21" s="172"/>
       <c r="J21" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K21" s="177" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="10.5" customHeight="1">
       <c r="A22" s="55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="162"/>
       <c r="C22" s="163"/>
@@ -3370,19 +3385,19 @@
       <c r="F22" s="168"/>
       <c r="G22" s="169"/>
       <c r="H22" s="54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I22" s="54" t="s">
         <v>1</v>
       </c>
       <c r="J22" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K22" s="177"/>
     </row>
     <row r="23" spans="1:11" ht="10.5" customHeight="1">
       <c r="A23" s="55" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B23" s="162"/>
       <c r="C23" s="163"/>
@@ -3391,13 +3406,13 @@
       <c r="F23" s="168"/>
       <c r="G23" s="169"/>
       <c r="H23" s="54" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I23" s="54" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J23" s="50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K23" s="177"/>
     </row>
@@ -3412,10 +3427,10 @@
       <c r="F24" s="168"/>
       <c r="G24" s="169"/>
       <c r="H24" s="54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I24" s="54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J24" s="50"/>
       <c r="K24" s="177"/>
@@ -3431,10 +3446,10 @@
       <c r="F25" s="165"/>
       <c r="G25" s="170"/>
       <c r="H25" s="54" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I25" s="54" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J25" s="50"/>
       <c r="K25" s="178"/>
@@ -3475,58 +3490,61 @@
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A28" s="62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="139" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="140"/>
       <c r="D28" s="139" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E28" s="140"/>
       <c r="F28" s="139" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G28" s="140"/>
       <c r="H28" s="138" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I28" s="138"/>
       <c r="J28" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" s="62" t="s">
         <v>30</v>
-      </c>
-      <c r="K28" s="62" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="10.5" customHeight="1">
       <c r="A29" s="50">
-        <f>A15+1</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B29" s="132" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="C29" s="133"/>
       <c r="D29" s="141" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="E29" s="142"/>
       <c r="F29" s="141" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="G29" s="142"/>
       <c r="H29" s="147" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I29" s="148"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="151"/>
+      <c r="J29" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="K29" s="151" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="10.5" customHeight="1">
       <c r="A30" s="62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="134"/>
       <c r="C30" s="135"/>
@@ -3535,19 +3553,19 @@
       <c r="F30" s="143"/>
       <c r="G30" s="144"/>
       <c r="H30" s="62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I30" s="62" t="s">
         <v>1</v>
       </c>
       <c r="J30" s="62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K30" s="152"/>
     </row>
     <row r="31" spans="1:11" ht="10.5" customHeight="1">
       <c r="A31" s="53" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B31" s="134"/>
       <c r="C31" s="135"/>
@@ -3556,9 +3574,11 @@
       <c r="F31" s="143"/>
       <c r="G31" s="144"/>
       <c r="H31" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="I31" s="54"/>
+        <v>40</v>
+      </c>
+      <c r="I31" s="54" t="s">
+        <v>89</v>
+      </c>
       <c r="J31" s="50"/>
       <c r="K31" s="152"/>
     </row>
@@ -3573,9 +3593,11 @@
       <c r="F32" s="143"/>
       <c r="G32" s="144"/>
       <c r="H32" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="I32" s="62"/>
+        <v>36</v>
+      </c>
+      <c r="I32" s="62" t="s">
+        <v>32</v>
+      </c>
       <c r="J32" s="62"/>
       <c r="K32" s="152"/>
     </row>
@@ -3590,37 +3612,39 @@
       <c r="F33" s="145"/>
       <c r="G33" s="146"/>
       <c r="H33" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="I33" s="54"/>
+        <v>39</v>
+      </c>
+      <c r="I33" s="54" t="s">
+        <v>90</v>
+      </c>
       <c r="J33" s="50"/>
       <c r="K33" s="153"/>
     </row>
     <row r="34" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A34" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="129" t="s">
         <v>26</v>
-      </c>
-      <c r="B34" s="129" t="s">
-        <v>27</v>
       </c>
       <c r="C34" s="130"/>
       <c r="D34" s="129" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E34" s="130"/>
       <c r="F34" s="129" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G34" s="130"/>
       <c r="H34" s="131" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I34" s="131"/>
       <c r="J34" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" s="63" t="s">
         <v>30</v>
-      </c>
-      <c r="K34" s="63" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="10.5" customHeight="1">
@@ -3628,29 +3652,29 @@
         <v>4</v>
       </c>
       <c r="B35" s="132" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="133"/>
       <c r="D35" s="141" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E35" s="142"/>
       <c r="F35" s="141" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G35" s="142"/>
       <c r="H35" s="149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I35" s="150"/>
       <c r="J35" s="57" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K35" s="151"/>
     </row>
     <row r="36" spans="1:11" ht="10.5" customHeight="1">
       <c r="A36" s="47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="134"/>
       <c r="C36" s="135"/>
@@ -3659,13 +3683,13 @@
       <c r="F36" s="143"/>
       <c r="G36" s="144"/>
       <c r="H36" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I36" s="47" t="s">
         <v>1</v>
       </c>
       <c r="J36" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K36" s="152"/>
     </row>
@@ -3680,13 +3704,13 @@
       <c r="F37" s="143"/>
       <c r="G37" s="144"/>
       <c r="H37" s="54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I37" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J37" s="50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K37" s="152"/>
     </row>
@@ -3701,10 +3725,10 @@
       <c r="F38" s="143"/>
       <c r="G38" s="144"/>
       <c r="H38" s="47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I38" s="47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J38" s="47"/>
       <c r="K38" s="152"/>
@@ -3720,7 +3744,7 @@
       <c r="F39" s="145"/>
       <c r="G39" s="146"/>
       <c r="H39" s="54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I39" s="54" t="s">
         <v>2</v>
@@ -3730,29 +3754,29 @@
     </row>
     <row r="40" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A40" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="129" t="s">
         <v>26</v>
-      </c>
-      <c r="B40" s="129" t="s">
-        <v>27</v>
       </c>
       <c r="C40" s="130"/>
       <c r="D40" s="129" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E40" s="130"/>
       <c r="F40" s="129" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G40" s="130"/>
       <c r="H40" s="131" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I40" s="131"/>
       <c r="J40" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" s="63" t="s">
         <v>30</v>
-      </c>
-      <c r="K40" s="63" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="10.5" customHeight="1">
@@ -3760,29 +3784,29 @@
         <v>5</v>
       </c>
       <c r="B41" s="132" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="133"/>
       <c r="D41" s="141" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E41" s="142"/>
       <c r="F41" s="141" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G41" s="142"/>
       <c r="H41" s="149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I41" s="150"/>
       <c r="J41" s="57" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K41" s="151"/>
     </row>
     <row r="42" spans="1:11" ht="10.5" customHeight="1">
       <c r="A42" s="47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B42" s="134"/>
       <c r="C42" s="135"/>
@@ -3791,13 +3815,13 @@
       <c r="F42" s="143"/>
       <c r="G42" s="144"/>
       <c r="H42" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I42" s="47" t="s">
         <v>1</v>
       </c>
       <c r="J42" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K42" s="152"/>
     </row>
@@ -3812,13 +3836,13 @@
       <c r="F43" s="143"/>
       <c r="G43" s="144"/>
       <c r="H43" s="54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I43" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J43" s="50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K43" s="152"/>
     </row>
@@ -3833,10 +3857,10 @@
       <c r="F44" s="143"/>
       <c r="G44" s="144"/>
       <c r="H44" s="47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I44" s="47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J44" s="47"/>
       <c r="K44" s="152"/>
@@ -3852,7 +3876,7 @@
       <c r="F45" s="145"/>
       <c r="G45" s="146"/>
       <c r="H45" s="54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I45" s="54" t="s">
         <v>2</v>

--- a/Project_Code_Testcase_Template_v2.2.xlsx
+++ b/Project_Code_Testcase_Template_v2.2.xlsx
@@ -199,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="96">
   <si>
     <t>Online ID</t>
   </si>
@@ -207,9 +207,6 @@
     <t>Resp</t>
   </si>
   <si>
-    <t>23/08/2008</t>
-  </si>
-  <si>
     <t>Subtopic(abnormality)</t>
   </si>
   <si>
@@ -306,9 +303,6 @@
     <t>Not OK</t>
   </si>
   <si>
-    <t>TienND</t>
-  </si>
-  <si>
     <t>Test Date</t>
   </si>
   <si>
@@ -318,12 +312,6 @@
     <t>AnhDV</t>
   </si>
   <si>
-    <t>20/08/2008</t>
-  </si>
-  <si>
-    <t>DinhPX</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
@@ -333,18 +321,6 @@
     <t>Related Software:</t>
   </si>
   <si>
-    <t>Xem được phim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File Mpeg
-</t>
-  </si>
-  <si>
-    <t>1. Add film mpeg
-2. Mo VLC
-3. Gõ địa chỉ 192.168.0.5</t>
-  </si>
-  <si>
     <t>Chạy được</t>
   </si>
   <si>
@@ -481,6 +457,36 @@
   </si>
   <si>
     <t>1.2.2-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gửi tín hiệu nhận dạng biển số xe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Không nhận dạng được biển số </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hệ thống hoạt động </t>
+  </si>
+  <si>
+    <t>LanNv</t>
+  </si>
+  <si>
+    <t>24/8/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gửi tín hiệu nhận dạng khuôn mặt nếu có </t>
+  </si>
+  <si>
+    <t>Nhận dạng được</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>26/8/2018</t>
+  </si>
+  <si>
+    <t>PhiDN</t>
   </si>
 </sst>
 </file>
@@ -1888,7 +1894,7 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="5"/>
@@ -1970,7 +1976,7 @@
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="O6" s="127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P6" s="127"/>
       <c r="Q6" s="127"/>
@@ -2004,10 +2010,10 @@
       <c r="B9" s="30"/>
       <c r="C9" s="18"/>
       <c r="D9" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
@@ -2018,7 +2024,7 @@
       <c r="B10" s="30"/>
       <c r="C10" s="18"/>
       <c r="D10" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
@@ -2028,7 +2034,7 @@
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="124" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
@@ -2042,7 +2048,7 @@
       <c r="B11" s="30"/>
       <c r="C11" s="18"/>
       <c r="D11" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="128">
         <f ca="1">TODAY()</f>
@@ -2052,24 +2058,24 @@
       <c r="G11" s="128"/>
       <c r="H11" s="82"/>
       <c r="L11" s="33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
       <c r="O11" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P11" s="33"/>
       <c r="Q11" s="33" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="R11" s="33"/>
       <c r="S11" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T11" s="33"/>
       <c r="U11" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V11" s="33"/>
       <c r="X11" s="19"/>
@@ -2077,7 +2083,7 @@
     <row r="12" spans="1:24">
       <c r="B12" s="30"/>
       <c r="L12" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M12" s="34"/>
       <c r="N12" s="34"/>
@@ -2155,7 +2161,7 @@
     <row r="15" spans="1:24">
       <c r="B15" s="30"/>
       <c r="D15" s="27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E15" s="81"/>
       <c r="F15" s="81"/>
@@ -2286,7 +2292,7 @@
       <c r="G19" s="44"/>
       <c r="H19" s="44"/>
       <c r="L19" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M19" s="37"/>
       <c r="N19" s="37"/>
@@ -2338,7 +2344,7 @@
       <c r="B22" s="15"/>
       <c r="C22" s="4"/>
       <c r="D22" s="27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E22" s="81"/>
       <c r="F22" s="81"/>
@@ -2365,7 +2371,7 @@
       <c r="G24" s="44"/>
       <c r="H24" s="44"/>
       <c r="L24" s="124" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M24" s="114"/>
       <c r="N24" s="114"/>
@@ -2500,7 +2506,7 @@
     <row r="31" spans="2:35">
       <c r="B31" s="15"/>
       <c r="C31" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="28"/>
@@ -2536,7 +2542,7 @@
     <row r="32" spans="2:35">
       <c r="B32" s="46"/>
       <c r="C32" s="40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
@@ -2606,7 +2612,7 @@
     <row r="34" spans="1:35">
       <c r="B34" s="30"/>
       <c r="C34" s="39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="28"/>
@@ -2642,7 +2648,7 @@
     <row r="35" spans="1:35">
       <c r="B35" s="30"/>
       <c r="C35" s="40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
@@ -2909,8 +2915,8 @@
   </sheetPr>
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B10" zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2927,7 +2933,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="65" customFormat="1">
       <c r="A1" s="87" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B1" s="88" t="str">
         <f>Overview!E9</f>
@@ -2938,26 +2944,26 @@
       <c r="E1" s="89"/>
       <c r="F1" s="89"/>
       <c r="G1" s="90" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H1" s="91" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I1" s="111">
         <f>COUNTIF(H1:H792,"OK")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J1" s="92" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K1" s="93"/>
     </row>
     <row r="2" spans="1:11" s="65" customFormat="1">
       <c r="A2" s="126" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C2" s="95"/>
       <c r="D2" s="95"/>
@@ -2965,23 +2971,23 @@
       <c r="F2" s="96"/>
       <c r="G2" s="97"/>
       <c r="H2" s="98" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I2" s="112">
         <f>COUNTIF(H2:H793,"Not OK")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J2" s="99" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K2" s="100"/>
     </row>
     <row r="3" spans="1:11" s="65" customFormat="1" ht="11.25" customHeight="1">
       <c r="A3" s="94" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C3" s="95"/>
       <c r="D3" s="95"/>
@@ -2989,14 +2995,14 @@
       <c r="F3" s="96"/>
       <c r="G3" s="97"/>
       <c r="H3" s="98" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I3" s="113">
         <f>COUNTIF(H2:H793,"Untested")</f>
         <v>0</v>
       </c>
       <c r="J3" s="99" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="K3" s="100"/>
     </row>
@@ -3008,7 +3014,7 @@
       <c r="E4" s="96"/>
       <c r="F4" s="96"/>
       <c r="G4" s="102" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H4" s="95"/>
       <c r="I4" s="112">
@@ -3046,10 +3052,10 @@
     </row>
     <row r="7" spans="1:11" ht="10.5" customHeight="1">
       <c r="A7" s="109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="156" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="156"/>
       <c r="D7" s="156"/>
@@ -3063,29 +3069,29 @@
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A8" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="129" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" s="129" t="s">
-        <v>26</v>
       </c>
       <c r="C8" s="130"/>
       <c r="D8" s="129" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E8" s="130"/>
       <c r="F8" s="129" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="130"/>
       <c r="H8" s="157" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8" s="157"/>
       <c r="J8" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="49" t="s">
         <v>29</v>
-      </c>
-      <c r="K8" s="49" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="10.5" customHeight="1">
@@ -3093,50 +3099,50 @@
         <v>1</v>
       </c>
       <c r="B9" s="132" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C9" s="133"/>
       <c r="D9" s="141" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E9" s="142"/>
       <c r="F9" s="51" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G9" s="66"/>
       <c r="H9" s="147" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I9" s="148"/>
       <c r="J9" s="50" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K9" s="151" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="10.5" customHeight="1">
       <c r="A10" s="47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="134"/>
       <c r="C10" s="135"/>
       <c r="D10" s="143"/>
       <c r="E10" s="144"/>
       <c r="H10" s="47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I10" s="47" t="s">
         <v>1</v>
       </c>
       <c r="J10" s="47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K10" s="152"/>
     </row>
     <row r="11" spans="1:11" ht="10.5" customHeight="1">
       <c r="A11" s="53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="134"/>
       <c r="C11" s="135"/>
@@ -3145,7 +3151,7 @@
       <c r="F11" s="52"/>
       <c r="G11" s="67"/>
       <c r="H11" s="54" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I11" s="54"/>
       <c r="J11" s="50"/>
@@ -3161,10 +3167,10 @@
       <c r="E12" s="144"/>
       <c r="G12" s="67"/>
       <c r="H12" s="47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I12" s="47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J12" s="47"/>
       <c r="K12" s="152"/>
@@ -3180,7 +3186,7 @@
       <c r="F13" s="56"/>
       <c r="G13" s="68"/>
       <c r="H13" s="58" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="I13" s="58"/>
       <c r="J13" s="59"/>
@@ -3188,29 +3194,29 @@
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A14" s="60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="139" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="140"/>
       <c r="D14" s="139" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E14" s="140"/>
       <c r="F14" s="139" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G14" s="140"/>
       <c r="H14" s="138" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14" s="138"/>
       <c r="J14" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="61" t="s">
         <v>29</v>
-      </c>
-      <c r="K14" s="61" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="10.5" customHeight="1">
@@ -3218,31 +3224,31 @@
         <v>2</v>
       </c>
       <c r="B15" s="132" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C15" s="133"/>
       <c r="D15" s="141" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E15" s="142"/>
       <c r="F15" s="51" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G15" s="66"/>
       <c r="H15" s="149" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I15" s="150"/>
       <c r="J15" s="57" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="K15" s="151" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="10.5" customHeight="1">
       <c r="A16" s="62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="134"/>
       <c r="C16" s="135"/>
@@ -3251,19 +3257,19 @@
       <c r="F16" s="52"/>
       <c r="G16" s="67"/>
       <c r="H16" s="62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I16" s="62" t="s">
         <v>1</v>
       </c>
       <c r="J16" s="62" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K16" s="152"/>
     </row>
     <row r="17" spans="1:11" ht="10.5" customHeight="1">
       <c r="A17" s="53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="134"/>
       <c r="C17" s="135"/>
@@ -3272,13 +3278,13 @@
       <c r="F17" s="52"/>
       <c r="G17" s="67"/>
       <c r="H17" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="I17" s="54" t="s">
-        <v>76</v>
-      </c>
       <c r="J17" s="50" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K17" s="152"/>
     </row>
@@ -3293,10 +3299,10 @@
       <c r="F18" s="52"/>
       <c r="G18" s="67"/>
       <c r="H18" s="62" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I18" s="62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J18" s="62"/>
       <c r="K18" s="152"/>
@@ -3312,39 +3318,39 @@
       <c r="F19" s="56"/>
       <c r="G19" s="68"/>
       <c r="H19" s="54" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I19" s="54" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="J19" s="50"/>
       <c r="K19" s="152"/>
     </row>
     <row r="20" spans="1:11" ht="10.5" customHeight="1">
       <c r="A20" s="55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="173" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="174"/>
       <c r="D20" s="175" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E20" s="176"/>
       <c r="F20" s="175" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G20" s="176"/>
       <c r="H20" s="171" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I20" s="172"/>
       <c r="J20" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="179" t="s">
         <v>29</v>
-      </c>
-      <c r="K20" s="179" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="10.5" customHeight="1">
@@ -3352,31 +3358,31 @@
         <v>3</v>
       </c>
       <c r="B21" s="160" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C21" s="161"/>
       <c r="D21" s="166" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E21" s="167"/>
       <c r="F21" s="166" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G21" s="167"/>
       <c r="H21" s="171" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I21" s="172"/>
       <c r="J21" s="50" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K21" s="177" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="10.5" customHeight="1">
       <c r="A22" s="55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="162"/>
       <c r="C22" s="163"/>
@@ -3385,19 +3391,19 @@
       <c r="F22" s="168"/>
       <c r="G22" s="169"/>
       <c r="H22" s="54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I22" s="54" t="s">
         <v>1</v>
       </c>
       <c r="J22" s="50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K22" s="177"/>
     </row>
     <row r="23" spans="1:11" ht="10.5" customHeight="1">
       <c r="A23" s="55" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B23" s="162"/>
       <c r="C23" s="163"/>
@@ -3406,13 +3412,13 @@
       <c r="F23" s="168"/>
       <c r="G23" s="169"/>
       <c r="H23" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="I23" s="54" t="s">
-        <v>76</v>
-      </c>
       <c r="J23" s="50" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K23" s="177"/>
     </row>
@@ -3427,10 +3433,10 @@
       <c r="F24" s="168"/>
       <c r="G24" s="169"/>
       <c r="H24" s="54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I24" s="54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J24" s="50"/>
       <c r="K24" s="177"/>
@@ -3446,20 +3452,20 @@
       <c r="F25" s="165"/>
       <c r="G25" s="170"/>
       <c r="H25" s="54" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I25" s="54" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J25" s="50"/>
       <c r="K25" s="178"/>
     </row>
     <row r="26" spans="1:11" ht="10.5" customHeight="1">
       <c r="A26" s="109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" s="158" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" s="158"/>
       <c r="D26" s="156"/>
@@ -3473,10 +3479,10 @@
     </row>
     <row r="27" spans="1:11" ht="10.5" customHeight="1">
       <c r="A27" s="110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" s="154" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="154"/>
       <c r="D27" s="155"/>
@@ -3490,29 +3496,29 @@
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A28" s="62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="139" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="140"/>
       <c r="D28" s="139" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E28" s="140"/>
       <c r="F28" s="139" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G28" s="140"/>
       <c r="H28" s="138" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I28" s="138"/>
       <c r="J28" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="62" t="s">
         <v>29</v>
-      </c>
-      <c r="K28" s="62" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="10.5" customHeight="1">
@@ -3520,31 +3526,31 @@
         <v>4</v>
       </c>
       <c r="B29" s="132" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C29" s="133"/>
       <c r="D29" s="141" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E29" s="142"/>
       <c r="F29" s="141" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G29" s="142"/>
       <c r="H29" s="147" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I29" s="148"/>
       <c r="J29" s="50" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="K29" s="151" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="10.5" customHeight="1">
       <c r="A30" s="62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="134"/>
       <c r="C30" s="135"/>
@@ -3553,19 +3559,19 @@
       <c r="F30" s="143"/>
       <c r="G30" s="144"/>
       <c r="H30" s="62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I30" s="62" t="s">
         <v>1</v>
       </c>
       <c r="J30" s="62" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K30" s="152"/>
     </row>
     <row r="31" spans="1:11" ht="10.5" customHeight="1">
       <c r="A31" s="53" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B31" s="134"/>
       <c r="C31" s="135"/>
@@ -3574,10 +3580,10 @@
       <c r="F31" s="143"/>
       <c r="G31" s="144"/>
       <c r="H31" s="54" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="I31" s="54" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J31" s="50"/>
       <c r="K31" s="152"/>
@@ -3593,10 +3599,10 @@
       <c r="F32" s="143"/>
       <c r="G32" s="144"/>
       <c r="H32" s="62" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I32" s="62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J32" s="62"/>
       <c r="K32" s="152"/>
@@ -3612,39 +3618,39 @@
       <c r="F33" s="145"/>
       <c r="G33" s="146"/>
       <c r="H33" s="54" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="I33" s="54" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J33" s="50"/>
       <c r="K33" s="153"/>
     </row>
     <row r="34" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A34" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="129" t="s">
         <v>25</v>
-      </c>
-      <c r="B34" s="129" t="s">
-        <v>26</v>
       </c>
       <c r="C34" s="130"/>
       <c r="D34" s="129" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E34" s="130"/>
       <c r="F34" s="129" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G34" s="130"/>
       <c r="H34" s="131" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I34" s="131"/>
       <c r="J34" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="63" t="s">
         <v>29</v>
-      </c>
-      <c r="K34" s="63" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="10.5" customHeight="1">
@@ -3652,29 +3658,31 @@
         <v>4</v>
       </c>
       <c r="B35" s="132" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="C35" s="133"/>
       <c r="D35" s="141" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E35" s="142"/>
       <c r="F35" s="141" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="G35" s="142"/>
       <c r="H35" s="149" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I35" s="150"/>
       <c r="J35" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="K35" s="151"/>
+        <v>41</v>
+      </c>
+      <c r="K35" s="151" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="36" spans="1:11" ht="10.5" customHeight="1">
       <c r="A36" s="47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="134"/>
       <c r="C36" s="135"/>
@@ -3683,19 +3691,19 @@
       <c r="F36" s="143"/>
       <c r="G36" s="144"/>
       <c r="H36" s="47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I36" s="47" t="s">
         <v>1</v>
       </c>
       <c r="J36" s="47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K36" s="152"/>
     </row>
     <row r="37" spans="1:11" ht="10.5" customHeight="1">
       <c r="A37" s="53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37" s="134"/>
       <c r="C37" s="135"/>
@@ -3704,13 +3712,13 @@
       <c r="F37" s="143"/>
       <c r="G37" s="144"/>
       <c r="H37" s="54" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="I37" s="54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J37" s="50" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="K37" s="152"/>
     </row>
@@ -3725,10 +3733,10 @@
       <c r="F38" s="143"/>
       <c r="G38" s="144"/>
       <c r="H38" s="47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I38" s="47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J38" s="47"/>
       <c r="K38" s="152"/>
@@ -3744,39 +3752,39 @@
       <c r="F39" s="145"/>
       <c r="G39" s="146"/>
       <c r="H39" s="54" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="I39" s="54" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="J39" s="50"/>
       <c r="K39" s="153"/>
     </row>
     <row r="40" spans="1:11" s="2" customFormat="1" ht="10.5" customHeight="1">
       <c r="A40" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="129" t="s">
         <v>25</v>
-      </c>
-      <c r="B40" s="129" t="s">
-        <v>26</v>
       </c>
       <c r="C40" s="130"/>
       <c r="D40" s="129" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E40" s="130"/>
       <c r="F40" s="129" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G40" s="130"/>
       <c r="H40" s="131" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I40" s="131"/>
       <c r="J40" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="K40" s="63" t="s">
         <v>29</v>
-      </c>
-      <c r="K40" s="63" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="10.5" customHeight="1">
@@ -3784,29 +3792,29 @@
         <v>5</v>
       </c>
       <c r="B41" s="132" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="C41" s="133"/>
       <c r="D41" s="141" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="E41" s="142"/>
       <c r="F41" s="141" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="G41" s="142"/>
       <c r="H41" s="149" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="I41" s="150"/>
-      <c r="J41" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="K41" s="151"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="151" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="42" spans="1:11" ht="10.5" customHeight="1">
       <c r="A42" s="47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B42" s="134"/>
       <c r="C42" s="135"/>
@@ -3815,19 +3823,19 @@
       <c r="F42" s="143"/>
       <c r="G42" s="144"/>
       <c r="H42" s="47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I42" s="47" t="s">
         <v>1</v>
       </c>
       <c r="J42" s="47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K42" s="152"/>
     </row>
     <row r="43" spans="1:11" ht="10.5" customHeight="1">
       <c r="A43" s="53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B43" s="134"/>
       <c r="C43" s="135"/>
@@ -3836,13 +3844,13 @@
       <c r="F43" s="143"/>
       <c r="G43" s="144"/>
       <c r="H43" s="54" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="I43" s="54" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="J43" s="50" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="K43" s="152"/>
     </row>
@@ -3857,10 +3865,10 @@
       <c r="F44" s="143"/>
       <c r="G44" s="144"/>
       <c r="H44" s="47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I44" s="47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J44" s="47"/>
       <c r="K44" s="152"/>
@@ -3876,10 +3884,10 @@
       <c r="F45" s="145"/>
       <c r="G45" s="146"/>
       <c r="H45" s="54" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="I45" s="54" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="J45" s="50"/>
       <c r="K45" s="153"/>
